--- a/Excel/StartConfig/Beta/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartMachineConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A834D3-4838-4E0B-9E34-7EF734B3625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB6396-51E3-4CE4-A0F3-D4BE2BCE38EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,13 @@
   </si>
   <si>
     <t>39.96.194.143</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.94.107.92</t>
+  </si>
+  <si>
+    <t>172.17.94.25</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F6"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -446,7 +456,7 @@
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -460,7 +470,7 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -474,7 +484,7 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -488,7 +498,7 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -502,7 +512,21 @@
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
         <v>20301</v>
       </c>
     </row>
